--- a/data/raw/devices.xlsx
+++ b/data/raw/devices.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universiteittwente-my.sharepoint.com/personal/m_sikora_utwente_nl/Documents/Desktop/PhD_Stress-In-Action/01_Database/Dashboard/relational/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxu567\Documents\R\sia.project.1.wi.data\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_F25DC773A252ABDACC104806F1DA67425ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB86C178-8005-4D60-8903-74A3A97FC123}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E057978-6EB1-404D-9325-706501F26DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12945" yWindow="-18000" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>E4</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>001_sia_wd_emp</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>release_year</t>
+  </si>
+  <si>
+    <t>device_id</t>
   </si>
 </sst>
 </file>
@@ -199,14 +199,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -492,68 +492,68 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
-    <col min="8" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="12" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="12" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -561,73 +561,73 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1">
         <v>42005</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
       <c r="H2">
         <v>1542</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
       </c>
       <c r="N2">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="3">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1">
         <v>43831</v>
       </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
       </c>
       <c r="H3">
         <v>1984</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N3">
         <v>38</v>
